--- a/2-simulation-and-optimization/simulation/widget-sales-solution.xlsx
+++ b/2-simulation-and-optimization/simulation/widget-sales-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\2-simulation-and-optimization\simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1742621-E72F-407A-95C2-396269AB8A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A7906-1B55-405E-9517-712573E98808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{867EEEF5-6CA2-430A-A11C-051EAD285BAA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{867EEEF5-6CA2-430A-A11C-051EAD285BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Cumulative demand</t>
   </si>
   <si>
-    <t>Supply</t>
-  </si>
-  <si>
     <t>Average sales/day</t>
   </si>
   <si>
@@ -67,11 +64,18 @@
   <si>
     <t>Days to sell</t>
   </si>
+  <si>
+    <t>Goal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,8 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +765,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8973502" y="1346835"/>
+              <a:off x="9080182" y="1346835"/>
               <a:ext cx="4572000" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1093,47 +1099,48 @@
   <dimension ref="A1:H307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <f ca="1">_xlfn.XMATCH($B$1,$C$8:$C$34,1,-1)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(B4),"")</f>
@@ -1157,30 +1164,30 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),$B$2,$B$3),0)</f>
-        <v>11</v>
-      </c>
-      <c r="C8">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="2">
         <f ca="1">B8</f>
-        <v>11</v>
+        <v>1007</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
         <f ca="1">B4</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(G8),"")</f>
@@ -1191,13 +1198,13 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f t="shared" ref="B9:B33" ca="1" si="0">ROUND(_xlfn.NORM.INV(RAND(),$B$2,$B$3),0)</f>
-        <v>9</v>
-      </c>
-      <c r="C9">
+        <v>1265</v>
+      </c>
+      <c r="C9" s="2">
         <f ca="1">SUM($B$8:B9)</f>
-        <v>20</v>
+        <v>2272</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(C9),"")</f>
@@ -1219,32 +1226,32 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C10">
+        <v>886</v>
+      </c>
+      <c r="C10" s="2">
         <f ca="1">SUM($B$8:B10)</f>
-        <v>32</v>
+        <v>3158</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C11">
+        <v>412</v>
+      </c>
+      <c r="C11" s="2">
         <f ca="1">SUM($B$8:B11)</f>
-        <v>45</v>
+        <v>3570</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1257,127 +1264,127 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C12">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="2">
         <f ca="1">SUM($B$8:B12)</f>
-        <v>58</v>
+        <v>4690</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13">
+        <v>679</v>
+      </c>
+      <c r="C13" s="2">
         <f ca="1">SUM($B$8:B13)</f>
-        <v>67</v>
+        <v>5369</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14">
+        <v>1485</v>
+      </c>
+      <c r="C14" s="2">
         <f ca="1">SUM($B$8:B14)</f>
-        <v>80</v>
+        <v>6854</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15">
+        <v>765</v>
+      </c>
+      <c r="C15" s="2">
         <f ca="1">SUM($B$8:B15)</f>
-        <v>93</v>
+        <v>7619</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C16">
+        <v>1335</v>
+      </c>
+      <c r="C16" s="2">
         <f ca="1">SUM($B$8:B16)</f>
-        <v>101</v>
+        <v>8954</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C17">
+        <v>475</v>
+      </c>
+      <c r="C17" s="2">
         <f ca="1">SUM($B$8:B17)</f>
-        <v>105</v>
+        <v>9429</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18">
+        <v>1174</v>
+      </c>
+      <c r="C18" s="2">
         <f ca="1">SUM($B$8:B18)</f>
-        <v>114</v>
+        <v>10603</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -1390,13 +1397,13 @@
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C19">
+        <v>1301</v>
+      </c>
+      <c r="C19" s="2">
         <f ca="1">SUM($B$8:B19)</f>
-        <v>123</v>
+        <v>11904</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -1409,89 +1416,89 @@
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C20">
+        <v>1025</v>
+      </c>
+      <c r="C20" s="2">
         <f ca="1">SUM($B$8:B20)</f>
-        <v>132</v>
+        <v>12929</v>
       </c>
       <c r="F20">
         <v>13</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C21">
+        <v>1220</v>
+      </c>
+      <c r="C21" s="2">
         <f ca="1">SUM($B$8:B21)</f>
-        <v>138</v>
+        <v>14149</v>
       </c>
       <c r="F21">
         <v>14</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C22">
+        <v>855</v>
+      </c>
+      <c r="C22" s="2">
         <f ca="1">SUM($B$8:B22)</f>
-        <v>149</v>
+        <v>15004</v>
       </c>
       <c r="F22">
         <v>15</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C23">
+        <v>1025</v>
+      </c>
+      <c r="C23" s="2">
         <f ca="1">SUM($B$8:B23)</f>
-        <v>160</v>
+        <v>16029</v>
       </c>
       <c r="F23">
         <v>16</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>17</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C24">
+        <v>1480</v>
+      </c>
+      <c r="C24" s="2">
         <f ca="1">SUM($B$8:B24)</f>
-        <v>172</v>
+        <v>17509</v>
       </c>
       <c r="F24">
         <v>17</v>
@@ -1504,146 +1511,146 @@
       <c r="A25">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C25">
+        <v>808</v>
+      </c>
+      <c r="C25" s="2">
         <f ca="1">SUM($B$8:B25)</f>
-        <v>182</v>
+        <v>18317</v>
       </c>
       <c r="F25">
         <v>18</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C26">
+        <v>795</v>
+      </c>
+      <c r="C26" s="2">
         <f ca="1">SUM($B$8:B26)</f>
-        <v>192</v>
+        <v>19112</v>
       </c>
       <c r="F26">
         <v>19</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C27">
+        <v>862</v>
+      </c>
+      <c r="C27" s="2">
         <f ca="1">SUM($B$8:B27)</f>
-        <v>199</v>
+        <v>19974</v>
       </c>
       <c r="F27">
         <v>20</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>21</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C28">
+        <v>1224</v>
+      </c>
+      <c r="C28" s="2">
         <f ca="1">SUM($B$8:B28)</f>
-        <v>214</v>
+        <v>21198</v>
       </c>
       <c r="F28">
         <v>21</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C29">
+        <v>954</v>
+      </c>
+      <c r="C29" s="2">
         <f ca="1">SUM($B$8:B29)</f>
-        <v>227</v>
+        <v>22152</v>
       </c>
       <c r="F29">
         <v>22</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>23</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C30">
+        <v>792</v>
+      </c>
+      <c r="C30" s="2">
         <f ca="1">SUM($B$8:B30)</f>
-        <v>233</v>
+        <v>22944</v>
       </c>
       <c r="F30">
         <v>23</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C31">
+        <v>784</v>
+      </c>
+      <c r="C31" s="2">
         <f ca="1">SUM($B$8:B31)</f>
-        <v>238</v>
+        <v>23728</v>
       </c>
       <c r="F31">
         <v>24</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>25</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C32">
+        <v>101</v>
+      </c>
+      <c r="C32" s="2">
         <f ca="1">SUM($B$8:B32)</f>
-        <v>248</v>
+        <v>23829</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -1656,13 +1663,13 @@
       <c r="A33">
         <v>26</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C33">
+        <v>909</v>
+      </c>
+      <c r="C33" s="2">
         <f ca="1">SUM($B$8:B33)</f>
-        <v>261</v>
+        <v>24738</v>
       </c>
       <c r="F33">
         <v>26</v>
@@ -1675,19 +1682,19 @@
       <c r="A34">
         <v>27</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),$B$2,$B$3),0)</f>
-        <v>9</v>
-      </c>
-      <c r="C34">
+        <v>1116</v>
+      </c>
+      <c r="C34" s="2">
         <f ca="1">SUM($B$8:B34)</f>
-        <v>270</v>
+        <v>25854</v>
       </c>
       <c r="F34">
         <v>27</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1695,7 +1702,7 @@
         <v>28</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1703,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1711,7 +1718,7 @@
         <v>30</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1727,7 +1734,7 @@
         <v>32</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,7 +1742,7 @@
         <v>33</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1743,7 +1750,7 @@
         <v>34</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1751,7 +1758,7 @@
         <v>35</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1759,7 +1766,7 @@
         <v>36</v>
       </c>
       <c r="G43">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1775,7 +1782,7 @@
         <v>38</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1783,7 +1790,7 @@
         <v>39</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1807,7 +1814,7 @@
         <v>42</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
@@ -1823,7 +1830,7 @@
         <v>44</v>
       </c>
       <c r="G51">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
@@ -1831,7 +1838,7 @@
         <v>45</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
@@ -1847,7 +1854,7 @@
         <v>47</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.3">
@@ -1863,7 +1870,7 @@
         <v>49</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.3">
@@ -1871,7 +1878,7 @@
         <v>50</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.3">
@@ -1879,7 +1886,7 @@
         <v>51</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.3">
@@ -1887,7 +1894,7 @@
         <v>52</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.3">
@@ -1895,7 +1902,7 @@
         <v>53</v>
       </c>
       <c r="G60">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.3">
@@ -1911,7 +1918,7 @@
         <v>55</v>
       </c>
       <c r="G62">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.3">
@@ -1919,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.3">
@@ -1927,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="G64">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.3">
@@ -1935,7 +1942,7 @@
         <v>58</v>
       </c>
       <c r="G65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.3">
@@ -1943,7 +1950,7 @@
         <v>59</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
@@ -1967,7 +1974,7 @@
         <v>62</v>
       </c>
       <c r="G69">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
@@ -1975,7 +1982,7 @@
         <v>63</v>
       </c>
       <c r="G70">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
@@ -1983,7 +1990,7 @@
         <v>64</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.3">
@@ -1991,7 +1998,7 @@
         <v>65</v>
       </c>
       <c r="G72">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.3">
@@ -1999,7 +2006,7 @@
         <v>66</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.3">
@@ -2007,7 +2014,7 @@
         <v>67</v>
       </c>
       <c r="G74">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.3">
@@ -2015,7 +2022,7 @@
         <v>68</v>
       </c>
       <c r="G75">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.3">
@@ -2023,7 +2030,7 @@
         <v>69</v>
       </c>
       <c r="G76">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.3">
@@ -2031,7 +2038,7 @@
         <v>70</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.3">
@@ -2039,7 +2046,7 @@
         <v>71</v>
       </c>
       <c r="G78">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.3">
@@ -2047,7 +2054,7 @@
         <v>72</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.3">
@@ -2055,7 +2062,7 @@
         <v>73</v>
       </c>
       <c r="G80">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
@@ -2063,7 +2070,7 @@
         <v>74</v>
       </c>
       <c r="G81">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.3">
@@ -2071,7 +2078,7 @@
         <v>75</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.3">
@@ -2079,7 +2086,7 @@
         <v>76</v>
       </c>
       <c r="G83">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.3">
@@ -2087,7 +2094,7 @@
         <v>77</v>
       </c>
       <c r="G84">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
@@ -2095,7 +2102,7 @@
         <v>78</v>
       </c>
       <c r="G85">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
@@ -2103,7 +2110,7 @@
         <v>79</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
@@ -2111,7 +2118,7 @@
         <v>80</v>
       </c>
       <c r="G87">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
@@ -2119,7 +2126,7 @@
         <v>81</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.3">
@@ -2127,7 +2134,7 @@
         <v>82</v>
       </c>
       <c r="G89">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.3">
@@ -2135,7 +2142,7 @@
         <v>83</v>
       </c>
       <c r="G90">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.3">
@@ -2143,7 +2150,7 @@
         <v>84</v>
       </c>
       <c r="G91">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.3">
@@ -2151,7 +2158,7 @@
         <v>85</v>
       </c>
       <c r="G92">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.3">
@@ -2183,7 +2190,7 @@
         <v>89</v>
       </c>
       <c r="G96">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.3">
@@ -2191,7 +2198,7 @@
         <v>90</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.3">
@@ -2199,7 +2206,7 @@
         <v>91</v>
       </c>
       <c r="G98">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.3">
@@ -2207,7 +2214,7 @@
         <v>92</v>
       </c>
       <c r="G99">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.3">
@@ -2215,7 +2222,7 @@
         <v>93</v>
       </c>
       <c r="G100">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.3">
@@ -2231,7 +2238,7 @@
         <v>95</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.3">
@@ -2239,7 +2246,7 @@
         <v>96</v>
       </c>
       <c r="G103">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.3">
@@ -2247,7 +2254,7 @@
         <v>97</v>
       </c>
       <c r="G104">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.3">
@@ -2255,7 +2262,7 @@
         <v>98</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.3">
@@ -2263,7 +2270,7 @@
         <v>99</v>
       </c>
       <c r="G106">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.3">
@@ -2271,7 +2278,7 @@
         <v>100</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.3">
@@ -2279,7 +2286,7 @@
         <v>101</v>
       </c>
       <c r="G108">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.3">
@@ -2295,7 +2302,7 @@
         <v>103</v>
       </c>
       <c r="G110">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.3">
@@ -2311,7 +2318,7 @@
         <v>105</v>
       </c>
       <c r="G112">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.3">
@@ -2335,7 +2342,7 @@
         <v>108</v>
       </c>
       <c r="G115">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.3">
@@ -2359,7 +2366,7 @@
         <v>111</v>
       </c>
       <c r="G118">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.3">
@@ -2375,7 +2382,7 @@
         <v>113</v>
       </c>
       <c r="G120">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.3">
@@ -2383,7 +2390,7 @@
         <v>114</v>
       </c>
       <c r="G121">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.3">
@@ -2391,7 +2398,7 @@
         <v>115</v>
       </c>
       <c r="G122">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.3">
@@ -2399,7 +2406,7 @@
         <v>116</v>
       </c>
       <c r="G123">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.3">
@@ -2407,7 +2414,7 @@
         <v>117</v>
       </c>
       <c r="G124">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.3">
@@ -2423,7 +2430,7 @@
         <v>119</v>
       </c>
       <c r="G126">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.3">
@@ -2431,7 +2438,7 @@
         <v>120</v>
       </c>
       <c r="G127">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.3">
@@ -2447,7 +2454,7 @@
         <v>122</v>
       </c>
       <c r="G129">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.3">
@@ -2455,7 +2462,7 @@
         <v>123</v>
       </c>
       <c r="G130">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.3">
@@ -2463,7 +2470,7 @@
         <v>124</v>
       </c>
       <c r="G131">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.3">
@@ -2479,7 +2486,7 @@
         <v>126</v>
       </c>
       <c r="G133">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.3">
@@ -2487,7 +2494,7 @@
         <v>127</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.3">
@@ -2495,7 +2502,7 @@
         <v>128</v>
       </c>
       <c r="G135">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.3">
@@ -2511,7 +2518,7 @@
         <v>130</v>
       </c>
       <c r="G137">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.3">
@@ -2527,7 +2534,7 @@
         <v>132</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.3">
@@ -2543,7 +2550,7 @@
         <v>134</v>
       </c>
       <c r="G141">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.3">
@@ -2551,7 +2558,7 @@
         <v>135</v>
       </c>
       <c r="G142">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.3">
@@ -2559,7 +2566,7 @@
         <v>136</v>
       </c>
       <c r="G143">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.3">
@@ -2575,7 +2582,7 @@
         <v>138</v>
       </c>
       <c r="G145">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.3">
@@ -2583,7 +2590,7 @@
         <v>139</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.3">
@@ -2591,7 +2598,7 @@
         <v>140</v>
       </c>
       <c r="G147">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.3">
@@ -2599,7 +2606,7 @@
         <v>141</v>
       </c>
       <c r="G148">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.3">
@@ -2615,7 +2622,7 @@
         <v>143</v>
       </c>
       <c r="G150">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.3">
@@ -2631,7 +2638,7 @@
         <v>145</v>
       </c>
       <c r="G152">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.3">
@@ -2647,7 +2654,7 @@
         <v>147</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.3">
@@ -2655,7 +2662,7 @@
         <v>148</v>
       </c>
       <c r="G155">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.3">
@@ -2671,7 +2678,7 @@
         <v>150</v>
       </c>
       <c r="G157">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.3">
@@ -2687,7 +2694,7 @@
         <v>152</v>
       </c>
       <c r="G159">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.3">
@@ -2711,7 +2718,7 @@
         <v>155</v>
       </c>
       <c r="G162">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.3">
@@ -2727,7 +2734,7 @@
         <v>157</v>
       </c>
       <c r="G164">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.3">
@@ -2735,7 +2742,7 @@
         <v>158</v>
       </c>
       <c r="G165">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.3">
@@ -2759,7 +2766,7 @@
         <v>161</v>
       </c>
       <c r="G168">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.3">
@@ -2767,7 +2774,7 @@
         <v>162</v>
       </c>
       <c r="G169">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.3">
@@ -2775,7 +2782,7 @@
         <v>163</v>
       </c>
       <c r="G170">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.3">
@@ -2783,7 +2790,7 @@
         <v>164</v>
       </c>
       <c r="G171">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.3">
@@ -2791,7 +2798,7 @@
         <v>165</v>
       </c>
       <c r="G172">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.3">
@@ -2799,7 +2806,7 @@
         <v>166</v>
       </c>
       <c r="G173">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.3">
@@ -2807,7 +2814,7 @@
         <v>167</v>
       </c>
       <c r="G174">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.3">
@@ -2823,7 +2830,7 @@
         <v>169</v>
       </c>
       <c r="G176">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.3">
@@ -2831,7 +2838,7 @@
         <v>170</v>
       </c>
       <c r="G177">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.3">
@@ -2847,7 +2854,7 @@
         <v>172</v>
       </c>
       <c r="G179">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.3">
@@ -2863,7 +2870,7 @@
         <v>174</v>
       </c>
       <c r="G181">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.3">
@@ -2871,7 +2878,7 @@
         <v>175</v>
       </c>
       <c r="G182">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.3">
@@ -2879,7 +2886,7 @@
         <v>176</v>
       </c>
       <c r="G183">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.3">
@@ -2887,7 +2894,7 @@
         <v>177</v>
       </c>
       <c r="G184">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.3">
@@ -2919,7 +2926,7 @@
         <v>181</v>
       </c>
       <c r="G188">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.3">
@@ -2927,7 +2934,7 @@
         <v>182</v>
       </c>
       <c r="G189">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.3">
@@ -2943,7 +2950,7 @@
         <v>184</v>
       </c>
       <c r="G191">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.3">
@@ -2951,7 +2958,7 @@
         <v>185</v>
       </c>
       <c r="G192">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.3">
@@ -2959,7 +2966,7 @@
         <v>186</v>
       </c>
       <c r="G193">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.3">
@@ -2967,7 +2974,7 @@
         <v>187</v>
       </c>
       <c r="G194">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.3">
@@ -2975,7 +2982,7 @@
         <v>188</v>
       </c>
       <c r="G195">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="6:7" x14ac:dyDescent="0.3">
@@ -2991,7 +2998,7 @@
         <v>190</v>
       </c>
       <c r="G197">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.3">
@@ -2999,7 +3006,7 @@
         <v>191</v>
       </c>
       <c r="G198">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.3">
@@ -3007,7 +3014,7 @@
         <v>192</v>
       </c>
       <c r="G199">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.3">
@@ -3023,7 +3030,7 @@
         <v>194</v>
       </c>
       <c r="G201">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.3">
@@ -3039,7 +3046,7 @@
         <v>196</v>
       </c>
       <c r="G203">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.3">
@@ -3047,7 +3054,7 @@
         <v>197</v>
       </c>
       <c r="G204">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.3">
@@ -3063,7 +3070,7 @@
         <v>199</v>
       </c>
       <c r="G206">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.3">
@@ -3079,7 +3086,7 @@
         <v>201</v>
       </c>
       <c r="G208">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="6:7" x14ac:dyDescent="0.3">
@@ -3087,7 +3094,7 @@
         <v>202</v>
       </c>
       <c r="G209">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.3">
@@ -3095,7 +3102,7 @@
         <v>203</v>
       </c>
       <c r="G210">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="6:7" x14ac:dyDescent="0.3">
@@ -3103,7 +3110,7 @@
         <v>204</v>
       </c>
       <c r="G211">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.3">
@@ -3111,7 +3118,7 @@
         <v>205</v>
       </c>
       <c r="G212">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.3">
@@ -3119,7 +3126,7 @@
         <v>206</v>
       </c>
       <c r="G213">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.3">
@@ -3127,7 +3134,7 @@
         <v>207</v>
       </c>
       <c r="G214">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.3">
@@ -3143,7 +3150,7 @@
         <v>209</v>
       </c>
       <c r="G216">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.3">
@@ -3159,7 +3166,7 @@
         <v>211</v>
       </c>
       <c r="G218">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.3">
@@ -3167,7 +3174,7 @@
         <v>212</v>
       </c>
       <c r="G219">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.3">
@@ -3175,7 +3182,7 @@
         <v>213</v>
       </c>
       <c r="G220">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.3">
@@ -3183,7 +3190,7 @@
         <v>214</v>
       </c>
       <c r="G221">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.3">
@@ -3191,7 +3198,7 @@
         <v>215</v>
       </c>
       <c r="G222">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.3">
@@ -3199,7 +3206,7 @@
         <v>216</v>
       </c>
       <c r="G223">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.3">
@@ -3207,7 +3214,7 @@
         <v>217</v>
       </c>
       <c r="G224">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.3">
@@ -3231,7 +3238,7 @@
         <v>220</v>
       </c>
       <c r="G227">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.3">
@@ -3263,7 +3270,7 @@
         <v>224</v>
       </c>
       <c r="G231">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.3">
@@ -3271,7 +3278,7 @@
         <v>225</v>
       </c>
       <c r="G232">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.3">
@@ -3279,7 +3286,7 @@
         <v>226</v>
       </c>
       <c r="G233">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.3">
@@ -3287,7 +3294,7 @@
         <v>227</v>
       </c>
       <c r="G234">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.3">
@@ -3295,7 +3302,7 @@
         <v>228</v>
       </c>
       <c r="G235">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.3">
@@ -3303,7 +3310,7 @@
         <v>229</v>
       </c>
       <c r="G236">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="6:7" x14ac:dyDescent="0.3">
@@ -3311,7 +3318,7 @@
         <v>230</v>
       </c>
       <c r="G237">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.3">
@@ -3319,7 +3326,7 @@
         <v>231</v>
       </c>
       <c r="G238">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.3">
@@ -3327,7 +3334,7 @@
         <v>232</v>
       </c>
       <c r="G239">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.3">
@@ -3335,7 +3342,7 @@
         <v>233</v>
       </c>
       <c r="G240">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.3">
@@ -3351,7 +3358,7 @@
         <v>235</v>
       </c>
       <c r="G242">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.3">
@@ -3359,7 +3366,7 @@
         <v>236</v>
       </c>
       <c r="G243">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.3">
@@ -3383,7 +3390,7 @@
         <v>239</v>
       </c>
       <c r="G246">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.3">
@@ -3391,7 +3398,7 @@
         <v>240</v>
       </c>
       <c r="G247">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.3">
@@ -3399,7 +3406,7 @@
         <v>241</v>
       </c>
       <c r="G248">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.3">
@@ -3407,7 +3414,7 @@
         <v>242</v>
       </c>
       <c r="G249">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.3">
@@ -3439,7 +3446,7 @@
         <v>246</v>
       </c>
       <c r="G253">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.3">
@@ -3447,7 +3454,7 @@
         <v>247</v>
       </c>
       <c r="G254">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.3">
@@ -3455,7 +3462,7 @@
         <v>248</v>
       </c>
       <c r="G255">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.3">
@@ -3463,7 +3470,7 @@
         <v>249</v>
       </c>
       <c r="G256">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="6:7" x14ac:dyDescent="0.3">
@@ -3479,7 +3486,7 @@
         <v>251</v>
       </c>
       <c r="G258">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.3">
@@ -3495,7 +3502,7 @@
         <v>253</v>
       </c>
       <c r="G260">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="6:7" x14ac:dyDescent="0.3">
@@ -3503,7 +3510,7 @@
         <v>254</v>
       </c>
       <c r="G261">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.3">
@@ -3511,7 +3518,7 @@
         <v>255</v>
       </c>
       <c r="G262">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="6:7" x14ac:dyDescent="0.3">
@@ -3519,7 +3526,7 @@
         <v>256</v>
       </c>
       <c r="G263">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="6:7" x14ac:dyDescent="0.3">
@@ -3527,7 +3534,7 @@
         <v>257</v>
       </c>
       <c r="G264">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="6:7" x14ac:dyDescent="0.3">
@@ -3535,7 +3542,7 @@
         <v>258</v>
       </c>
       <c r="G265">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="6:7" x14ac:dyDescent="0.3">
@@ -3543,7 +3550,7 @@
         <v>259</v>
       </c>
       <c r="G266">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="6:7" x14ac:dyDescent="0.3">
@@ -3551,7 +3558,7 @@
         <v>260</v>
       </c>
       <c r="G267">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="6:7" x14ac:dyDescent="0.3">
@@ -3567,7 +3574,7 @@
         <v>262</v>
       </c>
       <c r="G269">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="6:7" x14ac:dyDescent="0.3">
@@ -3575,7 +3582,7 @@
         <v>263</v>
       </c>
       <c r="G270">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="6:7" x14ac:dyDescent="0.3">
@@ -3583,7 +3590,7 @@
         <v>264</v>
       </c>
       <c r="G271">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="6:7" x14ac:dyDescent="0.3">
@@ -3591,7 +3598,7 @@
         <v>265</v>
       </c>
       <c r="G272">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="6:7" x14ac:dyDescent="0.3">
@@ -3607,7 +3614,7 @@
         <v>267</v>
       </c>
       <c r="G274">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="6:7" x14ac:dyDescent="0.3">
@@ -3615,7 +3622,7 @@
         <v>268</v>
       </c>
       <c r="G275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="6:7" x14ac:dyDescent="0.3">
@@ -3623,7 +3630,7 @@
         <v>269</v>
       </c>
       <c r="G276">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="6:7" x14ac:dyDescent="0.3">
@@ -3631,7 +3638,7 @@
         <v>270</v>
       </c>
       <c r="G277">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="6:7" x14ac:dyDescent="0.3">
@@ -3639,7 +3646,7 @@
         <v>271</v>
       </c>
       <c r="G278">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="6:7" x14ac:dyDescent="0.3">
@@ -3647,7 +3654,7 @@
         <v>272</v>
       </c>
       <c r="G279">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="6:7" x14ac:dyDescent="0.3">
@@ -3655,7 +3662,7 @@
         <v>273</v>
       </c>
       <c r="G280">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="6:7" x14ac:dyDescent="0.3">
@@ -3671,7 +3678,7 @@
         <v>275</v>
       </c>
       <c r="G282">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="6:7" x14ac:dyDescent="0.3">
@@ -3679,7 +3686,7 @@
         <v>276</v>
       </c>
       <c r="G283">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="6:7" x14ac:dyDescent="0.3">
@@ -3687,7 +3694,7 @@
         <v>277</v>
       </c>
       <c r="G284">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="6:7" x14ac:dyDescent="0.3">
@@ -3703,7 +3710,7 @@
         <v>279</v>
       </c>
       <c r="G286">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="6:7" x14ac:dyDescent="0.3">
@@ -3711,7 +3718,7 @@
         <v>280</v>
       </c>
       <c r="G287">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="6:7" x14ac:dyDescent="0.3">
@@ -3719,7 +3726,7 @@
         <v>281</v>
       </c>
       <c r="G288">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="6:7" x14ac:dyDescent="0.3">
@@ -3727,7 +3734,7 @@
         <v>282</v>
       </c>
       <c r="G289">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="6:7" x14ac:dyDescent="0.3">
@@ -3735,7 +3742,7 @@
         <v>283</v>
       </c>
       <c r="G290">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="6:7" x14ac:dyDescent="0.3">
@@ -3743,7 +3750,7 @@
         <v>284</v>
       </c>
       <c r="G291">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="6:7" x14ac:dyDescent="0.3">
@@ -3751,7 +3758,7 @@
         <v>285</v>
       </c>
       <c r="G292">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="6:7" x14ac:dyDescent="0.3">
@@ -3759,7 +3766,7 @@
         <v>286</v>
       </c>
       <c r="G293">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="6:7" x14ac:dyDescent="0.3">
@@ -3767,7 +3774,7 @@
         <v>287</v>
       </c>
       <c r="G294">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="6:7" x14ac:dyDescent="0.3">
@@ -3775,7 +3782,7 @@
         <v>288</v>
       </c>
       <c r="G295">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="6:7" x14ac:dyDescent="0.3">
@@ -3783,7 +3790,7 @@
         <v>289</v>
       </c>
       <c r="G296">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="6:7" x14ac:dyDescent="0.3">
@@ -3791,7 +3798,7 @@
         <v>290</v>
       </c>
       <c r="G297">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="6:7" x14ac:dyDescent="0.3">
@@ -3799,7 +3806,7 @@
         <v>291</v>
       </c>
       <c r="G298">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="6:7" x14ac:dyDescent="0.3">
@@ -3807,7 +3814,7 @@
         <v>292</v>
       </c>
       <c r="G299">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="6:7" x14ac:dyDescent="0.3">
@@ -3815,7 +3822,7 @@
         <v>293</v>
       </c>
       <c r="G300">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="6:7" x14ac:dyDescent="0.3">
@@ -3823,7 +3830,7 @@
         <v>294</v>
       </c>
       <c r="G301">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="6:7" x14ac:dyDescent="0.3">
@@ -3831,7 +3838,7 @@
         <v>295</v>
       </c>
       <c r="G302">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="6:7" x14ac:dyDescent="0.3">
@@ -3839,7 +3846,7 @@
         <v>296</v>
       </c>
       <c r="G303">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="6:7" x14ac:dyDescent="0.3">
@@ -3847,7 +3854,7 @@
         <v>297</v>
       </c>
       <c r="G304">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="6:7" x14ac:dyDescent="0.3">
@@ -3855,7 +3862,7 @@
         <v>298</v>
       </c>
       <c r="G305">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="6:7" x14ac:dyDescent="0.3">
@@ -3871,12 +3878,13 @@
         <v>300</v>
       </c>
       <c r="G307">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
